--- a/SHCourseGroupCodeAdmin/Template/修課檢核課程代碼樣板.xlsx
+++ b/SHCourseGroupCodeAdmin/Template/修課檢核課程代碼樣板.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="檢查修課學生課程代碼" sheetId="1" r:id="rId1"/>
@@ -411,7 +411,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -563,7 +563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J1" sqref="J1"/>
     </sheetView>

--- a/SHCourseGroupCodeAdmin/Template/修課檢核課程代碼樣板.xlsx
+++ b/SHCourseGroupCodeAdmin/Template/修課檢核課程代碼樣板.xlsx
@@ -25,8 +25,854 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ChunTai Chen</author>
+  </authors>
+  <commentList>
+    <comment ref="Q1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>開課方式：</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+- </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t xml:space="preserve">未開課
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">0 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t xml:space="preserve">原班級
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>跨班選修</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>班群開課</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">)
+2 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t xml:space="preserve">綜高跨年級選修
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">A </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t xml:space="preserve">同科單班選修
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">B </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t xml:space="preserve">同科跨班選修
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">C </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>同群跨科選修</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>技術型、進修部適用</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">)
+C </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>跨學程</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>綜高適用</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">)
+D </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t xml:space="preserve">同校跨群選修
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">E </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>跨校選修</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ChunTai Chen</author>
+  </authors>
+  <commentList>
+    <comment ref="Q1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>開課方式：</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+- </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t xml:space="preserve">未開課
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">0 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t xml:space="preserve">原班級
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>跨班選修</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>班群開課</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">)
+2 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t xml:space="preserve">綜高跨年級選修
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">A </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t xml:space="preserve">同科單班選修
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">B </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t xml:space="preserve">同科跨班選修
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">C </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>同群跨科選修</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>技術型、進修部適用</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">)
+C </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>跨學程</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>綜高適用</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">)
+D </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t xml:space="preserve">同校跨群選修
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">E </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>跨校選修</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ChunTai Chen</author>
+  </authors>
+  <commentList>
+    <comment ref="L1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>開課方式：</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+- </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t xml:space="preserve">未開課
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">0 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t xml:space="preserve">原班級
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>跨班選修</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>班群開課</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">)
+2 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t xml:space="preserve">綜高跨年級選修
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">A </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t xml:space="preserve">同科單班選修
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">B </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t xml:space="preserve">同科跨班選修
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">C </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>同群跨科選修</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>技術型、進修部適用</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">)
+C </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>跨學程</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>綜高適用</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">)
+D </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t xml:space="preserve">同校跨群選修
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">E </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>跨校選修</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="21">
   <si>
     <t>學號</t>
   </si>
@@ -40,50 +886,68 @@
     <t>姓名</t>
   </si>
   <si>
+    <t>課程名稱</t>
+  </si>
+  <si>
+    <t>科目名稱</t>
+  </si>
+  <si>
+    <t>科目級別</t>
+  </si>
+  <si>
+    <t>部定校訂</t>
+  </si>
+  <si>
+    <t>必修選修</t>
+  </si>
+  <si>
+    <t>學分數</t>
+  </si>
+  <si>
+    <t>節數</t>
+  </si>
+  <si>
+    <t>課程代碼</t>
+  </si>
+  <si>
+    <t>授課學期學分節數</t>
+  </si>
+  <si>
+    <t>群科班代碼</t>
+  </si>
+  <si>
+    <t>說明</t>
+  </si>
+  <si>
+    <t>年級</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年級</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>開課方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>開課方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>學年度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>學期</t>
-  </si>
-  <si>
-    <t>課程名稱</t>
-  </si>
-  <si>
-    <t>科目名稱</t>
-  </si>
-  <si>
-    <t>科目級別</t>
-  </si>
-  <si>
-    <t>部定校訂</t>
-  </si>
-  <si>
-    <t>必修選修</t>
-  </si>
-  <si>
-    <t>學分數</t>
-  </si>
-  <si>
-    <t>節數</t>
-  </si>
-  <si>
-    <t>課程代碼</t>
-  </si>
-  <si>
-    <t>授課學期學分節數</t>
-  </si>
-  <si>
-    <t>群科班代碼</t>
-  </si>
-  <si>
-    <t>說明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -98,6 +962,27 @@
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="2">
@@ -408,8 +1293,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -418,68 +1303,79 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="14" max="14" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -488,128 +1384,148 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/SHCourseGroupCodeAdmin/Template/修課檢核課程代碼樣板.xlsx
+++ b/SHCourseGroupCodeAdmin/Template/修課檢核課程代碼樣板.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20384"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ischoolProjectGit\ScoreReportDAL\SHCourseGroupCodeAdmin\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Works\Visual Studio Project\ScoreReportDAL\SHCourseGroupCodeAdmin\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7A6FEC-C48C-4BA3-8F5B-0C19949EA4AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="檢查修課學生課程代碼" sheetId="1" r:id="rId1"/>
@@ -26,12 +27,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>ChunTai Chen</author>
   </authors>
   <commentList>
-    <comment ref="Q1" authorId="0" shapeId="0">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -308,12 +309,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>ChunTai Chen</author>
   </authors>
   <commentList>
-    <comment ref="Q1" authorId="0" shapeId="0">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -590,12 +591,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>ChunTai Chen</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -872,7 +873,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="22">
   <si>
     <t>學號</t>
   </si>
@@ -940,13 +941,17 @@
   </si>
   <si>
     <t>學期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分項類別</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1293,8 +1298,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1304,12 +1309,12 @@
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -1347,21 +1352,24 @@
         <v>8</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1374,28 +1382,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:T1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="7" width="5.5" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5" customWidth="1"/>
+    <col min="14" max="14" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -1433,53 +1442,58 @@
         <v>8</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="7" width="5.5" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5" customWidth="1"/>
+    <col min="12" max="12" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -1511,15 +1525,18 @@
         <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
     </row>

--- a/SHCourseGroupCodeAdmin/Template/修課檢核課程代碼樣板.xlsx
+++ b/SHCourseGroupCodeAdmin/Template/修課檢核課程代碼樣板.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20384"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Works\Visual Studio Project\ScoreReportDAL\SHCourseGroupCodeAdmin\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ischoolProject\ScoreReportDAL\SHCourseGroupCodeAdmin\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7A6FEC-C48C-4BA3-8F5B-0C19949EA4AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06F7233-E3B3-465D-A91A-455E287618FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="檢查修課學生課程代碼" sheetId="1" r:id="rId1"/>
@@ -873,7 +873,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="24">
   <si>
     <t>學號</t>
   </si>
@@ -912,9 +912,6 @@
   </si>
   <si>
     <t>授課學期學分節數</t>
-  </si>
-  <si>
-    <t>群科班代碼</t>
   </si>
   <si>
     <t>說明</t>
@@ -946,6 +943,16 @@
   <si>
     <t>分項類別</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>課程規劃表</t>
+  </si>
+  <si>
+    <t>課程規劃表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>報部科目名稱</t>
   </si>
 </sst>
 </file>
@@ -1299,7 +1306,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S1"/>
+  <dimension ref="A1:T1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1312,17 +1319,19 @@
     <col min="16" max="16" width="9.5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="18.375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -1352,7 +1361,7 @@
         <v>8</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>9</v>
@@ -1367,10 +1376,13 @@
         <v>12</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
+      </c>
+      <c r="T1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1387,7 +1399,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
+      <selection pane="bottomLeft" activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1406,13 +1418,13 @@
   <sheetData>
     <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -1442,7 +1454,7 @@
         <v>8</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>9</v>
@@ -1457,13 +1469,13 @@
         <v>12</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1480,7 +1492,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1" sqref="K1"/>
+      <selection pane="bottomLeft" activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1495,13 +1507,13 @@
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -1525,16 +1537,16 @@
         <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>11</v>
